--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="160">
   <si>
     <t xml:space="preserve">Group</t>
   </si>
@@ -174,10 +174,7 @@
     <t xml:space="preserve">UAS-based (optical and lidar)</t>
   </si>
   <si>
-    <t xml:space="preserve">Variable, depending on flight parameters and sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable, depending on mission parameters</t>
+    <t xml:space="preserve">Variable</t>
   </si>
   <si>
     <t xml:space="preserve">Variable, depending on the sensor</t>
@@ -186,7 +183,7 @@
     <t xml:space="preserve">user-collected</t>
   </si>
   <si>
-    <t xml:space="preserve">National Ecological Observatory Network (NEON) aerial hyperspectral imagery </t>
+    <t xml:space="preserve">National Ecological Observatory Network (NEON) aerial imaging spectroscapy data </t>
   </si>
   <si>
     <t xml:space="preserve">1m</t>
@@ -604,8 +601,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -825,7 +822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>48</v>
       </c>
@@ -839,16 +836,16 @@
         <v>50</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,152 +853,152 @@
         <v>48</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1019,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1033,120 +1030,120 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1185,274 +1182,274 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>160</v>
-      </c>
       <c r="D16" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
